--- a/Tables (1).xlsx
+++ b/Tables (1).xlsx
@@ -618,18 +618,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,12 +952,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView topLeftCell="A145" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B163" t="s">
@@ -2159,7 +2159,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2216,10 +2216,10 @@
       <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -2230,41 +2230,41 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
@@ -2273,36 +2273,36 @@
       <c r="A12" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2310,19 +2310,19 @@
       <c r="A15" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
